--- a/biology/Médecine/KCNK3/KCNK3.xlsx
+++ b/biology/Médecine/KCNK3/KCNK3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">KCNK3 (« Potassium channel subfamily K member 3 ») est une protéine formant un canal potassique à deux pores. Son autre nom est le TASK-1. Elle est codée par le gène KCNK3 situé sur le chromosome 2 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans les cellules musculaires lisses des artères pulmonaires où elle est sensible à l'hypoxie (manque d'oxygène) et interviendrait dans le tonus musculaire[5].
-Elle interviendrait dans la vasoconstriction induite par l'endothéline-1[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les cellules musculaires lisses des artères pulmonaires où elle est sensible à l'hypoxie (manque d'oxygène) et interviendrait dans le tonus musculaire.
+Elle interviendrait dans la vasoconstriction induite par l'endothéline-1.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Cible médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est activée par certains anesthésiques gazeux comme l'halothane ou l'isoflurane[7].
-Elle est stimulée par le tréprostinil et serait le mécanisme de son activité vasodilatatrice[5].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est activée par certains anesthésiques gazeux comme l'halothane ou l'isoflurane.
+Elle est stimulée par le tréprostinil et serait le mécanisme de son activité vasodilatatrice.  
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs mutations ont été décrites, entraînant la formation d'une protéine non fonctionnelle. Ces mutations peuvent être responsable d'une hypertension artérielle pulmonaire[8] dont la transmission est de type autosomique dominante à pénétrance variable[9].
-Même en l'absence d'hypertension artérielle pulmonaire, l'expression du gène est réduite dans les cellules musculaires des artères pulmonaires, favorisant la vasoconstriction, l'inflammation et la prolifération de ces cellules[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs mutations ont été décrites, entraînant la formation d'une protéine non fonctionnelle. Ces mutations peuvent être responsable d'une hypertension artérielle pulmonaire dont la transmission est de type autosomique dominante à pénétrance variable.
+Même en l'absence d'hypertension artérielle pulmonaire, l'expression du gène est réduite dans les cellules musculaires des artères pulmonaires, favorisant la vasoconstriction, l'inflammation et la prolifération de ces cellules.
 </t>
         </is>
       </c>
